--- a/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
@@ -4190,35 +4190,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4263,6 +4235,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4274,7 +4314,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4553,7 +4593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4563,7 +4603,7 @@
     <col min="2" max="2" width="34.875" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5458,26 +5498,26 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N3:N32">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="3645" windowWidth="21615" windowHeight="9570"/>
@@ -4190,35 +4190,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4554,7 +4526,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5117,7 +5089,7 @@
         <v>651</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>845</v>
@@ -5458,26 +5430,26 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N3:N32">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="3645" windowWidth="21615" windowHeight="9570"/>
+    <workbookView xWindow="90" yWindow="3645" windowWidth="19440" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7685" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="890">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3991,13 +3991,21 @@
   <si>
     <t>Device_protocol</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4059,6 +4067,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4140,15 +4155,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,10 +4207,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -4529,8 +4552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5204,6 +5227,12 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>889</v>
+      </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="3645" windowWidth="19440" windowHeight="9570"/>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7686" uniqueCount="889">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3994,10 +3994,6 @@
   </si>
   <si>
     <t>Pre-condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4553,7 +4549,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5230,9 +5226,7 @@
       <c r="A23" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>889</v>
-      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="3">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.40_AddDevice.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="3645" windowWidth="19440" windowHeight="9570"/>
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7686" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="890">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3995,6 +3995,9 @@
   <si>
     <t>Pre-condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_license</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5229,9 @@
       <c r="A23" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>889</v>
+      </c>
       <c r="C23" s="3">
         <v>22</v>
       </c>
